--- a/kupci_pregled_dugovanja_2.xlsx
+++ b/kupci_pregled_dugovanja_2.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve">${partn_velicina_naz}</t>
   </si>
   <si>
-    <t xml:space="preserve">${partn_vr_obezbj}</t>
+    <t xml:space="preserve">${partn_vr_obezbj_naz}</t>
   </si>
   <si>
     <t xml:space="preserve">${prmj}</t>
@@ -243,7 +243,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,6 +281,10 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -324,7 +328,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -382,7 +386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="true" ht="15.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="15" customFormat="true" ht="15.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -404,22 +408,22 @@
       <c r="G2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="14" t="s">
         <v>25</v>
       </c>
     </row>

--- a/kupci_pregled_dugovanja_2.xlsx
+++ b/kupci_pregled_dugovanja_2.xlsx
@@ -11,8 +11,8 @@
     <sheet name="kupci_pregled_dugovanja" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Header" vbProcedure="false">kupci_pregled_dugovanja!$A$1:$M$1</definedName>
-    <definedName function="false" hidden="false" name="Sql1" vbProcedure="false">kupci_pregled_dugovanja!$A$2:$M$2</definedName>
+    <definedName function="false" hidden="false" name="Header" vbProcedure="false">kupci_pregled_dugovanja!$A$1:$I$1</definedName>
+    <definedName function="false" hidden="false" name="Sql1" vbProcedure="false">kupci_pregled_dugovanja!$A$2:$I$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Konto Id</t>
   </si>
@@ -38,33 +38,30 @@
     <t xml:space="preserve">Naziv referenta</t>
   </si>
   <si>
+    <t xml:space="preserve">Rok plaćanja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valuta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dospjelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nedospjelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukupno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrsta obezbjeđenja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tip kupca</t>
+  </si>
+  <si>
     <t xml:space="preserve">Regija</t>
   </si>
   <si>
-    <t xml:space="preserve">Partn. Veličina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vrsta obezbjedjenja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod.mj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rok plaćanja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valuta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dospjelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nedospjelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukupno</t>
-  </si>
-  <si>
     <t xml:space="preserve">${konto_id}</t>
   </si>
   <si>
@@ -77,31 +74,28 @@
     <t xml:space="preserve">${referent_naz}</t>
   </si>
   <si>
+    <t xml:space="preserve">${rok_pl}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${valuta}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${i_dospjelo}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${i_nedospjelo}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${i_ukupno}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${partn_vr_obezbj_naz}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${partn_velicina_naz}</t>
+  </si>
+  <si>
     <t xml:space="preserve">${partn_regija_naz}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${partn_velicina_naz}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${partn_vr_obezbj_naz}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${prmj}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${rok_pl}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${valuta}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${i_dospjelo}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${i_nedospjelo}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${i_ukupno}</t>
   </si>
 </sst>
 </file>
@@ -285,10 +279,6 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -302,6 +292,10 @@
     </xf>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -325,24 +319,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="14.29"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -361,71 +355,71 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="15" customFormat="true" ht="15.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>25</v>
-      </c>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/kupci_pregled_dugovanja_2.xlsx
+++ b/kupci_pregled_dugovanja_2.xlsx
@@ -11,8 +11,8 @@
     <sheet name="kupci_pregled_dugovanja" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Header" vbProcedure="false">kupci_pregled_dugovanja!$A$1:$I$1</definedName>
-    <definedName function="false" hidden="false" name="Sql1" vbProcedure="false">kupci_pregled_dugovanja!$A$2:$I$2</definedName>
+    <definedName function="false" hidden="false" name="Header" vbProcedure="false">kupci_pregled_dugovanja!$A$1:$L$1</definedName>
+    <definedName function="false" hidden="false" name="Sql1" vbProcedure="false">kupci_pregled_dugovanja!$A$2:$L$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t xml:space="preserve">Konto Id</t>
   </si>
@@ -87,15 +87,6 @@
   </si>
   <si>
     <t xml:space="preserve">${i_ukupno}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${partn_vr_obezbj_naz}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${partn_velicina_naz}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${partn_regija_naz}</t>
   </si>
 </sst>
 </file>
@@ -237,7 +228,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,10 +283,6 @@
     </xf>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -380,7 +367,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="15" customFormat="true" ht="15.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="14" customFormat="true" ht="15.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -408,14 +395,14 @@
       <c r="I2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>23</v>
+      <c r="J2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>

--- a/kupci_pregled_dugovanja_2.xlsx
+++ b/kupci_pregled_dugovanja_2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Konto Id</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t xml:space="preserve">${i_ukupno}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${partn_vr_obezbj_naz}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${partn_velicina_naz}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${partn_regija_naz}</t>
   </si>
 </sst>
 </file>
@@ -228,7 +237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -250,6 +259,10 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -326,7 +339,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="14.29"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -354,55 +367,55 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="14" customFormat="true" ht="15.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="15" customFormat="true" ht="15.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>13</v>
+      <c r="J2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
